--- a/Code/Results/Cases/Case_6_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.210193959642027</v>
+        <v>2.210798587548538</v>
       </c>
       <c r="C2">
-        <v>0.4661156159099562</v>
+        <v>0.3044689698680827</v>
       </c>
       <c r="D2">
-        <v>0.004915857261717171</v>
+        <v>0.04802832400469725</v>
       </c>
       <c r="E2">
-        <v>0.0255992522057209</v>
+        <v>0.04255541787311046</v>
       </c>
       <c r="F2">
-        <v>2.025888657336026</v>
+        <v>0.8836650249646851</v>
       </c>
       <c r="G2">
-        <v>0.0008332373017716086</v>
+        <v>0.0008131853156390314</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05807184227982809</v>
+        <v>0.06273080667121311</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1729288140741332</v>
+        <v>0.1709586429108967</v>
       </c>
       <c r="M2">
-        <v>0.5309315450934236</v>
+        <v>0.3921137384684457</v>
       </c>
       <c r="N2">
-        <v>1.260484434737087</v>
+        <v>0.9143471700325883</v>
       </c>
       <c r="O2">
-        <v>1.49524099726365</v>
+        <v>2.364150782601286</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.825672308661581</v>
+        <v>1.929675197180643</v>
       </c>
       <c r="C3">
-        <v>0.4028286598695274</v>
+        <v>0.2749065955564873</v>
       </c>
       <c r="D3">
-        <v>0.004327380943444759</v>
+        <v>0.04574264938129957</v>
       </c>
       <c r="E3">
-        <v>0.0254831291047386</v>
+        <v>0.04336212821655572</v>
       </c>
       <c r="F3">
-        <v>1.925415879225554</v>
+        <v>0.8533032122336976</v>
       </c>
       <c r="G3">
-        <v>0.0008407534007595565</v>
+        <v>0.0008175000315828779</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05914228809980271</v>
+        <v>0.06450643802505196</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1590144380641334</v>
+        <v>0.1562246881334701</v>
       </c>
       <c r="M3">
-        <v>0.4710439569832019</v>
+        <v>0.3447303508936841</v>
       </c>
       <c r="N3">
-        <v>1.322876559493679</v>
+        <v>0.9516663581258875</v>
       </c>
       <c r="O3">
-        <v>1.41840209663394</v>
+        <v>2.285286214414441</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.593275200280004</v>
+        <v>1.757789356329994</v>
       </c>
       <c r="C4">
-        <v>0.3643476140749442</v>
+        <v>0.2567212556698166</v>
       </c>
       <c r="D4">
-        <v>0.003982624133022306</v>
+        <v>0.04437125574754575</v>
       </c>
       <c r="E4">
-        <v>0.0254178077074334</v>
+        <v>0.04389240232326275</v>
       </c>
       <c r="F4">
-        <v>1.867512688021165</v>
+        <v>0.8362172049970695</v>
       </c>
       <c r="G4">
-        <v>0.0008455063273665183</v>
+        <v>0.000820240943211438</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05982047531680923</v>
+        <v>0.06564075015106718</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1506725168459084</v>
+        <v>0.1473003446067622</v>
       </c>
       <c r="M4">
-        <v>0.434896795544141</v>
+        <v>0.3158061949145292</v>
       </c>
       <c r="N4">
-        <v>1.362891131832914</v>
+        <v>0.9757373030135561</v>
       </c>
       <c r="O4">
-        <v>1.374147794160052</v>
+        <v>2.241378105648607</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.499402439485607</v>
+        <v>1.687900077753909</v>
       </c>
       <c r="C5">
-        <v>0.34874515190333</v>
+        <v>0.2493001030156137</v>
       </c>
       <c r="D5">
-        <v>0.003845587006675366</v>
+        <v>0.04382018670232668</v>
       </c>
       <c r="E5">
-        <v>0.02539256974581416</v>
+        <v>0.04411718289488764</v>
       </c>
       <c r="F5">
-        <v>1.844804522232323</v>
+        <v>0.8296277716394229</v>
       </c>
       <c r="G5">
-        <v>0.0008474790222985042</v>
+        <v>0.0008213813241934323</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06010214461259933</v>
+        <v>0.06611400930405686</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.147320096487654</v>
+        <v>0.1436925437785419</v>
       </c>
       <c r="M5">
-        <v>0.4203078991430687</v>
+        <v>0.3040572223852891</v>
       </c>
       <c r="N5">
-        <v>1.37961301919232</v>
+        <v>0.9858304269013409</v>
       </c>
       <c r="O5">
-        <v>1.356797997194263</v>
+        <v>2.224565908575642</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.48386235040897</v>
+        <v>1.676303662083768</v>
       </c>
       <c r="C6">
-        <v>0.3461586932178875</v>
+        <v>0.2480671388916136</v>
       </c>
       <c r="D6">
-        <v>0.003823021108050106</v>
+        <v>0.04372914479980494</v>
       </c>
       <c r="E6">
-        <v>0.02538845905684273</v>
+        <v>0.04415502954627648</v>
       </c>
       <c r="F6">
-        <v>1.841085672967111</v>
+        <v>0.8285556328944992</v>
       </c>
       <c r="G6">
-        <v>0.0008478087831326198</v>
+        <v>0.0008215721102331496</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06014923696142827</v>
+        <v>0.06619325726444325</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1467661638996702</v>
+        <v>0.1430951676664236</v>
       </c>
       <c r="M6">
-        <v>0.4178935285872143</v>
+        <v>0.3021084671355112</v>
       </c>
       <c r="N6">
-        <v>1.382414409664459</v>
+        <v>0.9875233421619143</v>
       </c>
       <c r="O6">
-        <v>1.353956968579595</v>
+        <v>2.221837982383789</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.592005961356506</v>
+        <v>1.756846209282031</v>
       </c>
       <c r="C7">
-        <v>0.3641368947520789</v>
+        <v>0.2566212163213635</v>
       </c>
       <c r="D7">
-        <v>0.003980762911580449</v>
+        <v>0.04436379265774448</v>
       </c>
       <c r="E7">
-        <v>0.02541746190089866</v>
+        <v>0.04389539873663084</v>
       </c>
       <c r="F7">
-        <v>1.86720292481192</v>
+        <v>0.836126849556365</v>
       </c>
       <c r="G7">
-        <v>0.0008455327852426213</v>
+        <v>0.0008202562274582987</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0598242524866861</v>
+        <v>0.06564708816058173</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1506271194126043</v>
+        <v>0.1472515737027109</v>
       </c>
       <c r="M7">
-        <v>0.4346994919483791</v>
+        <v>0.3156475969681907</v>
       </c>
       <c r="N7">
-        <v>1.363114982993324</v>
+        <v>0.9758722812506591</v>
       </c>
       <c r="O7">
-        <v>1.373911103645582</v>
+        <v>2.241147064934921</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.076780419070303</v>
+        <v>2.113700110885929</v>
       </c>
       <c r="C8">
-        <v>0.4442058966046432</v>
+        <v>0.2942816816922829</v>
       </c>
       <c r="D8">
-        <v>0.004709061511557699</v>
+        <v>0.047233411628266</v>
       </c>
       <c r="E8">
-        <v>0.02555789462415015</v>
+        <v>0.04282625678492336</v>
       </c>
       <c r="F8">
-        <v>1.990419193845156</v>
+        <v>0.8728620963907616</v>
       </c>
       <c r="G8">
-        <v>0.0008358009156114995</v>
+        <v>0.000814654245651576</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05843661292797631</v>
+        <v>0.06333385965095806</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1680869841979842</v>
+        <v>0.1658518427924918</v>
       </c>
       <c r="M8">
-        <v>0.5101430389712291</v>
+        <v>0.3757378230888762</v>
       </c>
       <c r="N8">
-        <v>1.281634973096835</v>
+        <v>0.9269704917511845</v>
       </c>
       <c r="O8">
-        <v>1.468107730756898</v>
+        <v>2.33598742064396</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.061724216664402</v>
+        <v>2.820559878418464</v>
       </c>
       <c r="C9">
-        <v>0.605012342663855</v>
+        <v>0.3679626706998249</v>
       </c>
       <c r="D9">
-        <v>0.006304659208828944</v>
+        <v>0.05312792538442324</v>
       </c>
       <c r="E9">
-        <v>0.02588693793394681</v>
+        <v>0.04101162753964083</v>
       </c>
       <c r="F9">
-        <v>2.26527856762371</v>
+        <v>0.9581134420231052</v>
       </c>
       <c r="G9">
-        <v>0.0008177562168587765</v>
+        <v>0.0008043774792714136</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05587953893836906</v>
+        <v>0.05915012907690764</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2041085832716405</v>
+        <v>0.2033872180457834</v>
       </c>
       <c r="M9">
-        <v>0.6638104343433824</v>
+        <v>0.4951526846847827</v>
       </c>
       <c r="N9">
-        <v>1.13603317727442</v>
+        <v>0.8405777312246876</v>
       </c>
       <c r="O9">
-        <v>1.678567649311972</v>
+        <v>2.560408427806465</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.813891569216423</v>
+        <v>3.346203352598934</v>
       </c>
       <c r="C10">
-        <v>0.7267022529097744</v>
+        <v>0.4221438892856497</v>
       </c>
       <c r="D10">
-        <v>0.007635681222903479</v>
+        <v>0.05764147758895888</v>
       </c>
       <c r="E10">
-        <v>0.02617129126204221</v>
+        <v>0.0398570194525929</v>
       </c>
       <c r="F10">
-        <v>2.492359686708781</v>
+        <v>1.030084386638336</v>
       </c>
       <c r="G10">
-        <v>0.0008050476988693137</v>
+        <v>0.0007972317882031809</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05409783491933284</v>
+        <v>0.05629519992098109</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2319433815214325</v>
+        <v>0.2317458193385846</v>
       </c>
       <c r="M10">
-        <v>0.7813878192165546</v>
+        <v>0.5842036547023355</v>
       </c>
       <c r="N10">
-        <v>1.038691772822872</v>
+        <v>0.7833732283515715</v>
       </c>
       <c r="O10">
-        <v>1.852772813854557</v>
+        <v>2.752596486612447</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.164180904084844</v>
+        <v>3.587185765420543</v>
       </c>
       <c r="C11">
-        <v>0.7831440708781372</v>
+        <v>0.4468398900318391</v>
       </c>
       <c r="D11">
-        <v>0.008290484719647218</v>
+        <v>0.05973931867534787</v>
       </c>
       <c r="E11">
-        <v>0.02631251633313658</v>
+        <v>0.03937211424494258</v>
       </c>
       <c r="F11">
-        <v>2.602350846276579</v>
+        <v>1.065158512123361</v>
       </c>
       <c r="G11">
-        <v>0.0007993644255898688</v>
+        <v>0.0007940624578113287</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05330761086102509</v>
+        <v>0.05504486195161817</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2449744912323268</v>
+        <v>0.2448489171595725</v>
       </c>
       <c r="M11">
-        <v>0.8361912422614992</v>
+        <v>0.6250865787776192</v>
       </c>
       <c r="N11">
-        <v>0.9967498025671944</v>
+        <v>0.7588233822261188</v>
       </c>
       <c r="O11">
-        <v>1.937252916123143</v>
+        <v>2.846880786475452</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.298173655632638</v>
+        <v>3.67875011505464</v>
       </c>
       <c r="C12">
-        <v>0.8047024265460152</v>
+        <v>0.4562019017207319</v>
       </c>
       <c r="D12">
-        <v>0.008546979041466507</v>
+        <v>0.06054055313401108</v>
       </c>
       <c r="E12">
-        <v>0.02636795864015484</v>
+        <v>0.03919443459098115</v>
       </c>
       <c r="F12">
-        <v>2.645079159705929</v>
+        <v>1.078803134882961</v>
       </c>
       <c r="G12">
-        <v>0.0007972244469682709</v>
+        <v>0.0007928734411180134</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.053011225968147</v>
+        <v>0.054578435738871</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2499686960218384</v>
+        <v>0.2498427093485418</v>
       </c>
       <c r="M12">
-        <v>0.8571611470301335</v>
+        <v>0.6406290561105052</v>
       </c>
       <c r="N12">
-        <v>0.98122776472146</v>
+        <v>0.7497490412611896</v>
       </c>
       <c r="O12">
-        <v>1.970087982337859</v>
+        <v>2.883652643098713</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.269253024044474</v>
+        <v>3.659015633160323</v>
       </c>
       <c r="C13">
-        <v>0.8000507176200529</v>
+        <v>0.4541851191325748</v>
       </c>
       <c r="D13">
-        <v>0.008491333677692836</v>
+        <v>0.06036768237478896</v>
       </c>
       <c r="E13">
-        <v>0.02635592633390615</v>
+        <v>0.03923243436484913</v>
       </c>
       <c r="F13">
-        <v>2.635826981399077</v>
+        <v>1.075847931503432</v>
       </c>
       <c r="G13">
-        <v>0.0007976848219331066</v>
+        <v>0.0007931290308009623</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05307493177070288</v>
+        <v>0.05467857391386666</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2488903414650565</v>
+        <v>0.2487657398429377</v>
       </c>
       <c r="M13">
-        <v>0.8526347759891522</v>
+        <v>0.6372788695956899</v>
       </c>
       <c r="N13">
-        <v>0.9845542671493561</v>
+        <v>0.7516933098448675</v>
       </c>
       <c r="O13">
-        <v>1.962977240387886</v>
+        <v>2.875684269684626</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.175176509021583</v>
+        <v>3.594712367219188</v>
       </c>
       <c r="C14">
-        <v>0.7849138018014798</v>
+        <v>0.4476098853564849</v>
       </c>
       <c r="D14">
-        <v>0.008311406633617402</v>
+        <v>0.05980509740026463</v>
       </c>
       <c r="E14">
-        <v>0.02631703665167473</v>
+        <v>0.03935737646299486</v>
       </c>
       <c r="F14">
-        <v>2.605843840141915</v>
+        <v>1.066273629570148</v>
       </c>
       <c r="G14">
-        <v>0.0007991881363540454</v>
+        <v>0.0007939644167151691</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05328317023014861</v>
+        <v>0.0550063469553459</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2453841327279775</v>
+        <v>0.2452591026959823</v>
       </c>
       <c r="M14">
-        <v>0.8379119296045587</v>
+        <v>0.6263640011480831</v>
       </c>
       <c r="N14">
-        <v>0.9954654226516624</v>
+        <v>0.7580723165072811</v>
       </c>
       <c r="O14">
-        <v>1.939936793317301</v>
+        <v>2.849884122563822</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.117732794887843</v>
+        <v>3.555366355365948</v>
       </c>
       <c r="C15">
-        <v>0.775667027037656</v>
+        <v>0.4435837883293345</v>
       </c>
       <c r="D15">
-        <v>0.008202353814573904</v>
+        <v>0.05946139982233944</v>
       </c>
       <c r="E15">
-        <v>0.02629347954575989</v>
+        <v>0.03943468553142981</v>
       </c>
       <c r="F15">
-        <v>2.587622195100479</v>
+        <v>1.060457181623832</v>
       </c>
       <c r="G15">
-        <v>0.0008001104821100362</v>
+        <v>0.0007944775485358449</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05341109231484165</v>
+        <v>0.05520803829942533</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2432444480408265</v>
+        <v>0.2431154313985502</v>
       </c>
       <c r="M15">
-        <v>0.8289228998753444</v>
+        <v>0.6196865005880881</v>
       </c>
       <c r="N15">
-        <v>1.002196528009449</v>
+        <v>0.7620088931247864</v>
       </c>
       <c r="O15">
-        <v>1.925936705278829</v>
+        <v>2.834222478470252</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.791177551909243</v>
+        <v>3.33049557329349</v>
       </c>
       <c r="C16">
-        <v>0.7230378827439665</v>
+        <v>0.4205311921720636</v>
       </c>
       <c r="D16">
-        <v>0.00759399950214501</v>
+        <v>0.05750531092857614</v>
       </c>
       <c r="E16">
-        <v>0.02616232183126588</v>
+        <v>0.0398895328190525</v>
       </c>
       <c r="F16">
-        <v>2.485315677165701</v>
+        <v>1.027841457481387</v>
       </c>
       <c r="G16">
-        <v>0.0008054209241851987</v>
+        <v>0.0007974405009276447</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05414988097719764</v>
+        <v>0.0563778938130981</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2310997357889164</v>
+        <v>0.2308938127729476</v>
       </c>
       <c r="M16">
-        <v>0.7778350820965869</v>
+        <v>0.5815399835345119</v>
       </c>
       <c r="N16">
-        <v>1.041481847789242</v>
+        <v>0.7850081248715668</v>
       </c>
       <c r="O16">
-        <v>1.847364758401454</v>
+        <v>2.746579675506126</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.593047612371151</v>
+        <v>3.193050670333264</v>
       </c>
       <c r="C17">
-        <v>0.6910490476421671</v>
+        <v>0.4064038130310337</v>
       </c>
       <c r="D17">
-        <v>0.007234390525423073</v>
+        <v>0.05631702238462566</v>
       </c>
       <c r="E17">
-        <v>0.02608507239492219</v>
+        <v>0.04017899641965084</v>
       </c>
       <c r="F17">
-        <v>2.42434545507534</v>
+        <v>1.008449328681664</v>
       </c>
       <c r="G17">
-        <v>0.0008087024755614181</v>
+        <v>0.0007992786153011577</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0546082570652997</v>
+        <v>0.05710801848893921</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.223748282422207</v>
+        <v>0.2234500683606768</v>
       </c>
       <c r="M17">
-        <v>0.7468503931360218</v>
+        <v>0.5582389606021891</v>
       </c>
       <c r="N17">
-        <v>1.066197538713276</v>
+        <v>0.7995017786214618</v>
       </c>
       <c r="O17">
-        <v>1.800565902943291</v>
+        <v>2.694626676209822</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.479841518716569</v>
+        <v>3.114168835597638</v>
       </c>
       <c r="C18">
-        <v>0.6727500605055923</v>
+        <v>0.3982824958340245</v>
       </c>
       <c r="D18">
-        <v>0.007032097414567673</v>
+        <v>0.05563772197761807</v>
       </c>
       <c r="E18">
-        <v>0.02604174056863773</v>
+        <v>0.04034927534172272</v>
       </c>
       <c r="F18">
-        <v>2.389899177141629</v>
+        <v>0.9975134561507275</v>
       </c>
       <c r="G18">
-        <v>0.0008105992777837121</v>
+        <v>0.0008003435353269041</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05487381584822693</v>
+        <v>0.05753251518548241</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2195542130717598</v>
+        <v>0.2191875164576231</v>
       </c>
       <c r="M18">
-        <v>0.72915094355902</v>
+        <v>0.5448714835952799</v>
       </c>
       <c r="N18">
-        <v>1.080631923892597</v>
+        <v>0.8079761072500773</v>
       </c>
       <c r="O18">
-        <v>1.774134958391244</v>
+        <v>2.665384821760938</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.441636117583357</v>
+        <v>3.087489276171198</v>
       </c>
       <c r="C19">
-        <v>0.6665707044216731</v>
+        <v>0.3955334170534002</v>
       </c>
       <c r="D19">
-        <v>0.006964344148514989</v>
+        <v>0.05540842693121562</v>
       </c>
       <c r="E19">
-        <v>0.02602725086294022</v>
+        <v>0.04040757505941883</v>
       </c>
       <c r="F19">
-        <v>2.378339822234707</v>
+        <v>0.9938473973779907</v>
       </c>
       <c r="G19">
-        <v>0.000811243162106803</v>
+        <v>0.0008007054350646587</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05496405980944719</v>
+        <v>0.05767702091997418</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2181398746242564</v>
+        <v>0.2177474526631755</v>
       </c>
       <c r="M19">
-        <v>0.7231783946904429</v>
+        <v>0.5403512230672973</v>
       </c>
       <c r="N19">
-        <v>1.085556007953947</v>
+        <v>0.8108687599024265</v>
       </c>
       <c r="O19">
-        <v>1.765266823671141</v>
+        <v>2.655591561466565</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.614059725931952</v>
+        <v>3.207663736857171</v>
       </c>
       <c r="C20">
-        <v>0.6944437488594701</v>
+        <v>0.4079072214924224</v>
       </c>
       <c r="D20">
-        <v>0.007272191353012047</v>
+        <v>0.05644308307279999</v>
       </c>
       <c r="E20">
-        <v>0.02609318014281792</v>
+        <v>0.04014778955947129</v>
       </c>
       <c r="F20">
-        <v>2.430770653841805</v>
+        <v>1.010490904549457</v>
       </c>
       <c r="G20">
-        <v>0.0008083521952854111</v>
+        <v>0.000799082153371544</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05455926458492133</v>
+        <v>0.05702982408813462</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2245272628367019</v>
+        <v>0.2242404927103223</v>
       </c>
       <c r="M20">
-        <v>0.7501359360107571</v>
+        <v>0.5607157562245106</v>
       </c>
       <c r="N20">
-        <v>1.06354372368272</v>
+        <v>0.7979445529836511</v>
       </c>
       <c r="O20">
-        <v>1.805496735987788</v>
+        <v>2.700090331921814</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.202771023917023</v>
+        <v>3.613591048251294</v>
       </c>
       <c r="C21">
-        <v>0.789354609208317</v>
+        <v>0.4495408881900573</v>
       </c>
       <c r="D21">
-        <v>0.008364011441261532</v>
+        <v>0.05997015349297641</v>
       </c>
       <c r="E21">
-        <v>0.02632840397595793</v>
+        <v>0.03932051544786219</v>
       </c>
       <c r="F21">
-        <v>2.614620404334772</v>
+        <v>1.069075761282832</v>
       </c>
       <c r="G21">
-        <v>0.0007987462630574212</v>
+        <v>0.000793718745760781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0532219285521931</v>
+        <v>0.05490987998333319</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2464123176723092</v>
+        <v>0.2462881970440094</v>
       </c>
       <c r="M21">
-        <v>0.8422302601477085</v>
+        <v>0.629568245756154</v>
       </c>
       <c r="N21">
-        <v>0.9922505625627309</v>
+        <v>0.7561925322522072</v>
       </c>
       <c r="O21">
-        <v>1.946680634396714</v>
+        <v>2.857432567243762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.595469440191891</v>
+        <v>3.880713829148647</v>
       </c>
       <c r="C22">
-        <v>0.852479114729789</v>
+        <v>0.4768118621219912</v>
       </c>
       <c r="D22">
-        <v>0.009128145720016079</v>
+        <v>0.06231530926874029</v>
       </c>
       <c r="E22">
-        <v>0.02649372820939888</v>
+        <v>0.03881455997784311</v>
       </c>
       <c r="F22">
-        <v>2.741117739282231</v>
+        <v>1.109493149231383</v>
       </c>
       <c r="G22">
-        <v>0.0007925380242164201</v>
+        <v>0.0007902781008006094</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05236451574859302</v>
+        <v>0.05356551108485252</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2610664808773606</v>
+        <v>0.2608852294935531</v>
       </c>
       <c r="M22">
-        <v>0.9036994484514054</v>
+        <v>0.6749267089205446</v>
       </c>
       <c r="N22">
-        <v>0.9477707608570896</v>
+        <v>0.7302053864955056</v>
       </c>
       <c r="O22">
-        <v>2.043923992891266</v>
+        <v>2.966535177280292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.385088253050185</v>
+        <v>3.737963773899025</v>
       </c>
       <c r="C23">
-        <v>0.818677666070073</v>
+        <v>0.4622501307793812</v>
       </c>
       <c r="D23">
-        <v>0.008715154892598775</v>
+        <v>0.06105984943501852</v>
       </c>
       <c r="E23">
-        <v>0.02640433600895609</v>
+        <v>0.03908137159121061</v>
       </c>
       <c r="F23">
-        <v>2.672982087872128</v>
+        <v>1.087717348661258</v>
       </c>
       <c r="G23">
-        <v>0.0007958457831181438</v>
+        <v>0.0007921087127172877</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05282063447312746</v>
+        <v>0.05427923024804837</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2532107999800246</v>
+        <v>0.2530763755750201</v>
       </c>
       <c r="M23">
-        <v>0.8707650698296376</v>
+        <v>0.6506825863660382</v>
       </c>
       <c r="N23">
-        <v>0.9713082869433549</v>
+        <v>0.7439526300174464</v>
       </c>
       <c r="O23">
-        <v>1.991535375200513</v>
+        <v>2.907702490044187</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.604557977700779</v>
+        <v>3.201056745628932</v>
       </c>
       <c r="C24">
-        <v>0.6929087205968187</v>
+        <v>0.4072275285787725</v>
       </c>
       <c r="D24">
-        <v>0.007255087841697261</v>
+        <v>0.05638607903576798</v>
       </c>
       <c r="E24">
-        <v>0.02608951128515091</v>
+        <v>0.0401618861610622</v>
       </c>
       <c r="F24">
-        <v>2.427863941468559</v>
+        <v>1.009567246929862</v>
       </c>
       <c r="G24">
-        <v>0.0008085105250697525</v>
+        <v>0.0007991709483543536</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05458140775079245</v>
+        <v>0.05706516102495485</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2241749854239998</v>
+        <v>0.2238830892567023</v>
       </c>
       <c r="M24">
-        <v>0.7486501888555992</v>
+        <v>0.5595959084155169</v>
       </c>
       <c r="N24">
-        <v>1.064742814406401</v>
+        <v>0.7986481340007572</v>
       </c>
       <c r="O24">
-        <v>1.803266035707026</v>
+        <v>2.697618267562746</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.790856801432426</v>
+        <v>2.628380226898628</v>
       </c>
       <c r="C25">
-        <v>0.5609841813823095</v>
+        <v>0.3480333384989933</v>
       </c>
       <c r="D25">
-        <v>0.00584965770448953</v>
+        <v>0.0515027198944793</v>
       </c>
       <c r="E25">
-        <v>0.02579123491770519</v>
+        <v>0.04147167745633684</v>
       </c>
       <c r="F25">
-        <v>2.186888771512884</v>
+        <v>0.9335087940859523</v>
       </c>
       <c r="G25">
-        <v>0.0008225348001861255</v>
+        <v>0.0008070844833060856</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05655403115014845</v>
+        <v>0.06024380556611053</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1941453542409235</v>
+        <v>0.1931060032433791</v>
       </c>
       <c r="M25">
-        <v>0.6215108530935751</v>
+        <v>0.4626436961945544</v>
       </c>
       <c r="N25">
-        <v>1.173808438594826</v>
+        <v>0.8628847434586078</v>
       </c>
       <c r="O25">
-        <v>1.618498646732192</v>
+        <v>2.495196959795493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.210798587548538</v>
+        <v>1.871996625320293</v>
       </c>
       <c r="C2">
-        <v>0.3044689698680827</v>
+        <v>0.3491198282941497</v>
       </c>
       <c r="D2">
-        <v>0.04802832400469725</v>
+        <v>0.07966438563938283</v>
       </c>
       <c r="E2">
-        <v>0.04255541787311046</v>
+        <v>0.0513223767311457</v>
       </c>
       <c r="F2">
-        <v>0.8836650249646851</v>
+        <v>0.591790433294122</v>
       </c>
       <c r="G2">
-        <v>0.0008131853156390314</v>
+        <v>0.3746929711489244</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0009267500944565299</v>
       </c>
       <c r="J2">
-        <v>0.06273080667121311</v>
+        <v>0.3183416913599757</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3137387741623421</v>
       </c>
       <c r="L2">
-        <v>0.1709586429108967</v>
+        <v>0.06715539485161859</v>
       </c>
       <c r="M2">
-        <v>0.3921137384684457</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9143471700325883</v>
+        <v>0.1830389270207959</v>
       </c>
       <c r="O2">
-        <v>2.364150782601286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3519783173557727</v>
+      </c>
+      <c r="P2">
+        <v>0.9374172470644453</v>
+      </c>
+      <c r="Q2">
+        <v>1.40895534656326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.929675197180643</v>
+        <v>1.631614235169565</v>
       </c>
       <c r="C3">
-        <v>0.2749065955564873</v>
+        <v>0.3185588877256151</v>
       </c>
       <c r="D3">
-        <v>0.04574264938129957</v>
+        <v>0.07600759306730254</v>
       </c>
       <c r="E3">
-        <v>0.04336212821655572</v>
+        <v>0.05216546239149</v>
       </c>
       <c r="F3">
-        <v>0.8533032122336976</v>
+        <v>0.5734831350020499</v>
       </c>
       <c r="G3">
-        <v>0.0008175000315828779</v>
+        <v>0.3587702595866844</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001605316030307335</v>
       </c>
       <c r="J3">
-        <v>0.06450643802505196</v>
+        <v>0.3154648166154672</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3174125799026335</v>
       </c>
       <c r="L3">
-        <v>0.1562246881334701</v>
+        <v>0.06832356450101873</v>
       </c>
       <c r="M3">
-        <v>0.3447303508936841</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9516663581258875</v>
+        <v>0.1670110159416538</v>
       </c>
       <c r="O3">
-        <v>2.285286214414441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3084682619308765</v>
+      </c>
+      <c r="P3">
+        <v>0.9448806442856608</v>
+      </c>
+      <c r="Q3">
+        <v>1.36887113700061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.757789356329994</v>
+        <v>1.483499181237107</v>
       </c>
       <c r="C4">
-        <v>0.2567212556698166</v>
+        <v>0.2998642722323126</v>
       </c>
       <c r="D4">
-        <v>0.04437125574754575</v>
+        <v>0.07383363120882791</v>
       </c>
       <c r="E4">
-        <v>0.04389240232326275</v>
+        <v>0.05272099835672961</v>
       </c>
       <c r="F4">
-        <v>0.8362172049970695</v>
+        <v>0.5629157925128823</v>
       </c>
       <c r="G4">
-        <v>0.000820240943211438</v>
+        <v>0.3494697643691893</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002226889312769043</v>
       </c>
       <c r="J4">
-        <v>0.06564075015106718</v>
+        <v>0.3140259639476426</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3200192428785336</v>
       </c>
       <c r="L4">
-        <v>0.1473003446067622</v>
+        <v>0.06907108452959854</v>
       </c>
       <c r="M4">
-        <v>0.3158061949145292</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9757373030135561</v>
+        <v>0.1573627539577771</v>
       </c>
       <c r="O4">
-        <v>2.241378105648607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.281756408527194</v>
+      </c>
+      <c r="P4">
+        <v>0.9502994015022566</v>
+      </c>
+      <c r="Q4">
+        <v>1.345945654310171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.687900077753909</v>
+        <v>1.422187753788762</v>
       </c>
       <c r="C5">
-        <v>0.2493001030156137</v>
+        <v>0.292642593888516</v>
       </c>
       <c r="D5">
-        <v>0.04382018670232668</v>
+        <v>0.07297731876528246</v>
       </c>
       <c r="E5">
-        <v>0.04411718289488764</v>
+        <v>0.05294743017437131</v>
       </c>
       <c r="F5">
-        <v>0.8296277716394229</v>
+        <v>0.5584357179425723</v>
       </c>
       <c r="G5">
-        <v>0.0008213813241934323</v>
+        <v>0.3454910541185185</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002602978318290816</v>
       </c>
       <c r="J5">
-        <v>0.06611400930405686</v>
+        <v>0.3133646961725347</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3209332182514579</v>
       </c>
       <c r="L5">
-        <v>0.1436925437785419</v>
+        <v>0.06938464587131765</v>
       </c>
       <c r="M5">
-        <v>0.3040572223852891</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9858304269013409</v>
+        <v>0.1536082173910458</v>
       </c>
       <c r="O5">
-        <v>2.224565908575642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2708305163049651</v>
+      </c>
+      <c r="P5">
+        <v>0.9530028797684338</v>
+      </c>
+      <c r="Q5">
+        <v>1.336043973696434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.676303662083768</v>
+        <v>1.410995828297075</v>
       </c>
       <c r="C6">
-        <v>0.2480671388916136</v>
+        <v>0.2919126224643662</v>
       </c>
       <c r="D6">
-        <v>0.04372914479980494</v>
+        <v>0.0728509930436303</v>
       </c>
       <c r="E6">
-        <v>0.04415502954627648</v>
+        <v>0.05297412719271932</v>
       </c>
       <c r="F6">
-        <v>0.8285556328944992</v>
+        <v>0.5572893616780235</v>
       </c>
       <c r="G6">
-        <v>0.0008215721102331496</v>
+        <v>0.3444667011275655</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002765458821386346</v>
       </c>
       <c r="J6">
-        <v>0.06619325726444325</v>
+        <v>0.3130701887961322</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3208041677605031</v>
       </c>
       <c r="L6">
-        <v>0.1430951676664236</v>
+        <v>0.06943894513045912</v>
       </c>
       <c r="M6">
-        <v>0.3021084671355112</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9875233421619143</v>
+        <v>0.1531477213375751</v>
       </c>
       <c r="O6">
-        <v>2.221837982383789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2689671855758462</v>
+      </c>
+      <c r="P6">
+        <v>0.9538209899112289</v>
+      </c>
+      <c r="Q6">
+        <v>1.333241613941127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.756846209282031</v>
+        <v>1.479923796227155</v>
       </c>
       <c r="C7">
-        <v>0.2566212163213635</v>
+        <v>0.3010503765388819</v>
       </c>
       <c r="D7">
-        <v>0.04436379265774448</v>
+        <v>0.07386247683681546</v>
       </c>
       <c r="E7">
-        <v>0.04389539873663084</v>
+        <v>0.05269285308811611</v>
       </c>
       <c r="F7">
-        <v>0.836126849556365</v>
+        <v>0.5617289778794614</v>
       </c>
       <c r="G7">
-        <v>0.0008202562274582987</v>
+        <v>0.3484033185552917</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002481024608445459</v>
       </c>
       <c r="J7">
-        <v>0.06564708816058173</v>
+        <v>0.3134995619136092</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3192511689037083</v>
       </c>
       <c r="L7">
-        <v>0.1472515737027109</v>
+        <v>0.06908069350194257</v>
       </c>
       <c r="M7">
-        <v>0.3156475969681907</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9758722812506591</v>
+        <v>0.1577496146537953</v>
       </c>
       <c r="O7">
-        <v>2.241147064934921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2814744557893079</v>
+      </c>
+      <c r="P7">
+        <v>0.9513231902748558</v>
+      </c>
+      <c r="Q7">
+        <v>1.342580742646263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.113700110885929</v>
+        <v>1.785541401990486</v>
       </c>
       <c r="C8">
-        <v>0.2942816816922829</v>
+        <v>0.3402865072237233</v>
       </c>
       <c r="D8">
-        <v>0.047233411628266</v>
+        <v>0.07844197474681636</v>
       </c>
       <c r="E8">
-        <v>0.04282625678492336</v>
+        <v>0.05156460193050361</v>
       </c>
       <c r="F8">
-        <v>0.8728620963907616</v>
+        <v>0.583844763523004</v>
       </c>
       <c r="G8">
-        <v>0.000814654245651576</v>
+        <v>0.3677594840583964</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001414530858122376</v>
       </c>
       <c r="J8">
-        <v>0.06333385965095806</v>
+        <v>0.3165976000568662</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3139043948866167</v>
       </c>
       <c r="L8">
-        <v>0.1658518427924918</v>
+        <v>0.06756151694862034</v>
       </c>
       <c r="M8">
-        <v>0.3757378230888762</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9269704917511845</v>
+        <v>0.1780517608361833</v>
       </c>
       <c r="O8">
-        <v>2.33598742064396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3367931401518476</v>
+      </c>
+      <c r="P8">
+        <v>0.941179372522484</v>
+      </c>
+      <c r="Q8">
+        <v>1.390500618542745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.820559878418464</v>
+        <v>2.385922629245385</v>
       </c>
       <c r="C9">
-        <v>0.3679626706998249</v>
+        <v>0.4155863142848091</v>
       </c>
       <c r="D9">
-        <v>0.05312792538442324</v>
+        <v>0.0879371655223693</v>
       </c>
       <c r="E9">
-        <v>0.04101162753964083</v>
+        <v>0.0497116595697733</v>
       </c>
       <c r="F9">
-        <v>0.9581134420231052</v>
+        <v>0.6348676691632917</v>
       </c>
       <c r="G9">
-        <v>0.0008043774792714136</v>
+        <v>0.4115714868410407</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006774330386853933</v>
       </c>
       <c r="J9">
-        <v>0.05915012907690764</v>
+        <v>0.326307549074258</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3077064282078155</v>
       </c>
       <c r="L9">
-        <v>0.2033872180457834</v>
+        <v>0.0648111410550376</v>
       </c>
       <c r="M9">
-        <v>0.4951526846847827</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8405777312246876</v>
+        <v>0.2187082519118633</v>
       </c>
       <c r="O9">
-        <v>2.560408427806465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4456223294231734</v>
+      </c>
+      <c r="P9">
+        <v>0.9263119852815578</v>
+      </c>
+      <c r="Q9">
+        <v>1.504425063733066</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.346203352598934</v>
+        <v>2.823565532226723</v>
       </c>
       <c r="C10">
-        <v>0.4221438892856497</v>
+        <v>0.4722046059849561</v>
       </c>
       <c r="D10">
-        <v>0.05764147758895888</v>
+        <v>0.09532276010567386</v>
       </c>
       <c r="E10">
-        <v>0.0398570194525929</v>
+        <v>0.04852800558333836</v>
       </c>
       <c r="F10">
-        <v>1.030084386638336</v>
+        <v>0.6756678326762398</v>
       </c>
       <c r="G10">
-        <v>0.0007972317882031809</v>
+        <v>0.4461044065580069</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001460846093143786</v>
       </c>
       <c r="J10">
-        <v>0.05629519992098109</v>
+        <v>0.335006423738335</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3047106533726556</v>
       </c>
       <c r="L10">
-        <v>0.2317458193385846</v>
+        <v>0.06294820261746192</v>
       </c>
       <c r="M10">
-        <v>0.5842036547023355</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7833732283515715</v>
+        <v>0.2499373517199928</v>
       </c>
       <c r="O10">
-        <v>2.752596486612447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5256905293055141</v>
+      </c>
+      <c r="P10">
+        <v>0.9205369138769726</v>
+      </c>
+      <c r="Q10">
+        <v>1.596330297349908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.587185765420543</v>
+        <v>3.017620272093097</v>
       </c>
       <c r="C11">
-        <v>0.4468398900318391</v>
+        <v>0.5003591523992554</v>
       </c>
       <c r="D11">
-        <v>0.05973931867534787</v>
+        <v>0.09884063658715547</v>
       </c>
       <c r="E11">
-        <v>0.03937211424494258</v>
+        <v>0.04798491835465413</v>
       </c>
       <c r="F11">
-        <v>1.065158512123361</v>
+        <v>0.6933298953143066</v>
       </c>
       <c r="G11">
-        <v>0.0007940624578113287</v>
+        <v>0.4608617470224203</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002489426821679075</v>
       </c>
       <c r="J11">
-        <v>0.05504486195161817</v>
+        <v>0.3385601104027671</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3025625568844852</v>
       </c>
       <c r="L11">
-        <v>0.2448489171595725</v>
+        <v>0.06215549402067388</v>
       </c>
       <c r="M11">
-        <v>0.6250865787776192</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7588233822261188</v>
+        <v>0.2651502377685375</v>
       </c>
       <c r="O11">
-        <v>2.846880786475452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5619474550688395</v>
+      </c>
+      <c r="P11">
+        <v>0.9208920635960993</v>
+      </c>
+      <c r="Q11">
+        <v>1.635266639756622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.67875011505464</v>
+        <v>3.093537293746351</v>
       </c>
       <c r="C12">
-        <v>0.4562019017207319</v>
+        <v>0.5098833851885445</v>
       </c>
       <c r="D12">
-        <v>0.06054055313401108</v>
+        <v>0.100151440116484</v>
       </c>
       <c r="E12">
-        <v>0.03919443459098115</v>
+        <v>0.04781124648282997</v>
       </c>
       <c r="F12">
-        <v>1.078803134882961</v>
+        <v>0.7011411161423453</v>
       </c>
       <c r="G12">
-        <v>0.0007928734411180134</v>
+        <v>0.4674423203834124</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002726597411327525</v>
       </c>
       <c r="J12">
-        <v>0.054578435738871</v>
+        <v>0.3404174652234531</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3024828210382786</v>
       </c>
       <c r="L12">
-        <v>0.2498427093485418</v>
+        <v>0.06184998025905131</v>
       </c>
       <c r="M12">
-        <v>0.6406290561105052</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7497490412611896</v>
+        <v>0.2705698476765832</v>
       </c>
       <c r="O12">
-        <v>2.883652643098713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5758139924097776</v>
+      </c>
+      <c r="P12">
+        <v>0.9202008444895711</v>
+      </c>
+      <c r="Q12">
+        <v>1.653184897187231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.659015633160323</v>
+        <v>3.077689053086885</v>
       </c>
       <c r="C13">
-        <v>0.4541851191325748</v>
+        <v>0.5075943735604653</v>
       </c>
       <c r="D13">
-        <v>0.06036768237478896</v>
+        <v>0.09986143207802911</v>
       </c>
       <c r="E13">
-        <v>0.03923243436484913</v>
+        <v>0.04785349600495081</v>
       </c>
       <c r="F13">
-        <v>1.075847931503432</v>
+        <v>0.6996491300631362</v>
       </c>
       <c r="G13">
-        <v>0.0007931290308009623</v>
+        <v>0.4661976098042118</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002631017067151298</v>
       </c>
       <c r="J13">
-        <v>0.05467857391386666</v>
+        <v>0.3401040677720317</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3026300332814813</v>
       </c>
       <c r="L13">
-        <v>0.2487657398429377</v>
+        <v>0.06191336349510657</v>
       </c>
       <c r="M13">
-        <v>0.6372788695956899</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7516933098448675</v>
+        <v>0.269323145381378</v>
       </c>
       <c r="O13">
-        <v>2.875684269684626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5728522253997141</v>
+      </c>
+      <c r="P13">
+        <v>0.920140368687953</v>
+      </c>
+      <c r="Q13">
+        <v>1.649873099435865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.594712367219188</v>
+        <v>3.024079072877214</v>
       </c>
       <c r="C14">
-        <v>0.4476098853564849</v>
+        <v>0.5010417233883118</v>
       </c>
       <c r="D14">
-        <v>0.05980509740026463</v>
+        <v>0.09894518889288406</v>
       </c>
       <c r="E14">
-        <v>0.03935737646299486</v>
+        <v>0.04797268426768753</v>
       </c>
       <c r="F14">
-        <v>1.066273629570148</v>
+        <v>0.6940532058445186</v>
       </c>
       <c r="G14">
-        <v>0.0007939644167151691</v>
+        <v>0.461476295819125</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002489656935551032</v>
       </c>
       <c r="J14">
-        <v>0.0550063469553459</v>
+        <v>0.3387496434038439</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3026111724341476</v>
       </c>
       <c r="L14">
-        <v>0.2452591026959823</v>
+        <v>0.06212933619874406</v>
       </c>
       <c r="M14">
-        <v>0.6263640011480831</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7580723165072811</v>
+        <v>0.2655622956420842</v>
       </c>
       <c r="O14">
-        <v>2.849884122563822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5630987017372604</v>
+      </c>
+      <c r="P14">
+        <v>0.9207463015895883</v>
+      </c>
+      <c r="Q14">
+        <v>1.636972826897704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.555366355365948</v>
+        <v>2.990253104159535</v>
       </c>
       <c r="C15">
-        <v>0.4435837883293345</v>
+        <v>0.4974972465233805</v>
       </c>
       <c r="D15">
-        <v>0.05946139982233944</v>
+        <v>0.09839972856769208</v>
       </c>
       <c r="E15">
-        <v>0.03943468553142981</v>
+        <v>0.04803639747346367</v>
       </c>
       <c r="F15">
-        <v>1.060457181623832</v>
+        <v>0.6902570870380913</v>
       </c>
       <c r="G15">
-        <v>0.0007944775485358449</v>
+        <v>0.4582494866602218</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.002497090738357244</v>
       </c>
       <c r="J15">
-        <v>0.05520803829942533</v>
+        <v>0.337752257229738</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3023465305680411</v>
       </c>
       <c r="L15">
-        <v>0.2431154313985502</v>
+        <v>0.06226652552115741</v>
       </c>
       <c r="M15">
-        <v>0.6196865005880881</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7620088931247864</v>
+        <v>0.2634170774081355</v>
       </c>
       <c r="O15">
-        <v>2.834222478470252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5570765480624686</v>
+      </c>
+      <c r="P15">
+        <v>0.9215348407180528</v>
+      </c>
+      <c r="Q15">
+        <v>1.628009620156121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.33049557329349</v>
+        <v>2.802613713936751</v>
       </c>
       <c r="C16">
-        <v>0.4205311921720636</v>
+        <v>0.4742699824932686</v>
       </c>
       <c r="D16">
-        <v>0.05750531092857614</v>
+        <v>0.09521224701778408</v>
       </c>
       <c r="E16">
-        <v>0.0398895328190525</v>
+        <v>0.04847869784034486</v>
       </c>
       <c r="F16">
-        <v>1.027841457481387</v>
+        <v>0.6712661046791553</v>
       </c>
       <c r="G16">
-        <v>0.0007974405009276447</v>
+        <v>0.4422090043864557</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002090835376527878</v>
       </c>
       <c r="J16">
-        <v>0.0563778938130981</v>
+        <v>0.3332946347560579</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3026438076644808</v>
       </c>
       <c r="L16">
-        <v>0.2308938127729476</v>
+        <v>0.0630349078906427</v>
       </c>
       <c r="M16">
-        <v>0.5815399835345119</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7850081248715668</v>
+        <v>0.2502337110059045</v>
       </c>
       <c r="O16">
-        <v>2.746579675506126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5229073942675342</v>
+      </c>
+      <c r="P16">
+        <v>0.923835621244038</v>
+      </c>
+      <c r="Q16">
+        <v>1.584473260662236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.193050670333264</v>
+        <v>2.687458782640022</v>
       </c>
       <c r="C17">
-        <v>0.4064038130310337</v>
+        <v>0.4600530555267142</v>
       </c>
       <c r="D17">
-        <v>0.05631702238462566</v>
+        <v>0.09328031337938825</v>
       </c>
       <c r="E17">
-        <v>0.04017899641965084</v>
+        <v>0.04876150512315469</v>
       </c>
       <c r="F17">
-        <v>1.008449328681664</v>
+        <v>0.6598778235510707</v>
       </c>
       <c r="G17">
-        <v>0.0007992786153011577</v>
+        <v>0.4325689712412242</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001926947557671532</v>
       </c>
       <c r="J17">
-        <v>0.05710801848893921</v>
+        <v>0.3306800108745591</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3029559052317232</v>
       </c>
       <c r="L17">
-        <v>0.2234500683606768</v>
+        <v>0.06351466650983006</v>
       </c>
       <c r="M17">
-        <v>0.5582389606021891</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7995017786214618</v>
+        <v>0.2422147756775956</v>
       </c>
       <c r="O17">
-        <v>2.694626676209822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5019674144395552</v>
+      </c>
+      <c r="P17">
+        <v>0.9255106544526441</v>
+      </c>
+      <c r="Q17">
+        <v>1.558438674669219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.114168835597638</v>
+        <v>2.623698267344139</v>
       </c>
       <c r="C18">
-        <v>0.3982824958340245</v>
+        <v>0.4507054188292727</v>
       </c>
       <c r="D18">
-        <v>0.05563772197761807</v>
+        <v>0.09214192914914321</v>
       </c>
       <c r="E18">
-        <v>0.04034927534172272</v>
+        <v>0.04895437798329461</v>
       </c>
       <c r="F18">
-        <v>0.9975134561507275</v>
+        <v>0.6544090851351001</v>
       </c>
       <c r="G18">
-        <v>0.0008003435353269041</v>
+        <v>0.4279855668811052</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001614570783142533</v>
       </c>
       <c r="J18">
-        <v>0.05753251518548241</v>
+        <v>0.3296695944858357</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3038520329605596</v>
       </c>
       <c r="L18">
-        <v>0.2191875164576231</v>
+        <v>0.06378355445598149</v>
       </c>
       <c r="M18">
-        <v>0.5448714835952799</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8079761072500773</v>
+        <v>0.2372374005769728</v>
       </c>
       <c r="O18">
-        <v>2.665384821760938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4900554604261984</v>
+      </c>
+      <c r="P18">
+        <v>0.9255773709072912</v>
+      </c>
+      <c r="Q18">
+        <v>1.546534802749647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.087489276171198</v>
+        <v>2.60018376754374</v>
       </c>
       <c r="C19">
-        <v>0.3955334170534002</v>
+        <v>0.4484531148875703</v>
       </c>
       <c r="D19">
-        <v>0.05540842693121562</v>
+        <v>0.09178540152524306</v>
       </c>
       <c r="E19">
-        <v>0.04040757505941883</v>
+        <v>0.0490003129794232</v>
       </c>
       <c r="F19">
-        <v>0.9938473973779907</v>
+        <v>0.6518109709076398</v>
       </c>
       <c r="G19">
-        <v>0.0008007054350646587</v>
+        <v>0.4257588076014827</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001702080964102848</v>
       </c>
       <c r="J19">
-        <v>0.05767702091997418</v>
+        <v>0.3289872446732005</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3036462810711313</v>
       </c>
       <c r="L19">
-        <v>0.2177474526631755</v>
+        <v>0.06388292229527615</v>
       </c>
       <c r="M19">
-        <v>0.5403512230672973</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8108687599024265</v>
+        <v>0.235856599310182</v>
       </c>
       <c r="O19">
-        <v>2.655591561466565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4859270416448283</v>
+      </c>
+      <c r="P19">
+        <v>0.9263808689793365</v>
+      </c>
+      <c r="Q19">
+        <v>1.540360835575228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.207663736857171</v>
+        <v>2.699914944360387</v>
       </c>
       <c r="C20">
-        <v>0.4079072214924224</v>
+        <v>0.4614724568911015</v>
       </c>
       <c r="D20">
-        <v>0.05644308307279999</v>
+        <v>0.09348229676263031</v>
       </c>
       <c r="E20">
-        <v>0.04014778955947129</v>
+        <v>0.04873300643767919</v>
       </c>
       <c r="F20">
-        <v>1.010490904549457</v>
+        <v>0.6611579395544425</v>
       </c>
       <c r="G20">
-        <v>0.000799082153371544</v>
+        <v>0.433657634619621</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.00192152945414481</v>
       </c>
       <c r="J20">
-        <v>0.05702982408813462</v>
+        <v>0.3309892128584693</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3029703820767473</v>
       </c>
       <c r="L20">
-        <v>0.2242404927103223</v>
+        <v>0.0634624671285291</v>
       </c>
       <c r="M20">
-        <v>0.5607157562245106</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7979445529836511</v>
+        <v>0.2430352819396688</v>
       </c>
       <c r="O20">
-        <v>2.700090331921814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.504205576085937</v>
+      </c>
+      <c r="P20">
+        <v>0.9252442937531313</v>
+      </c>
+      <c r="Q20">
+        <v>1.561407270241602</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.613591048251294</v>
+        <v>3.037023974521617</v>
       </c>
       <c r="C21">
-        <v>0.4495408881900573</v>
+        <v>0.5042920838282043</v>
       </c>
       <c r="D21">
-        <v>0.05997015349297641</v>
+        <v>0.09925364862342434</v>
       </c>
       <c r="E21">
-        <v>0.03932051544786219</v>
+        <v>0.04790872009677827</v>
       </c>
       <c r="F21">
-        <v>1.069075761282832</v>
+        <v>0.6945890609056562</v>
       </c>
       <c r="G21">
-        <v>0.000793718745760781</v>
+        <v>0.4618647057520491</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002780164164366106</v>
       </c>
       <c r="J21">
-        <v>0.05490987998333319</v>
+        <v>0.3386432352696573</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3018683312989943</v>
       </c>
       <c r="L21">
-        <v>0.2462881970440094</v>
+        <v>0.06207808030738438</v>
       </c>
       <c r="M21">
-        <v>0.629568245756154</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7561925322522072</v>
+        <v>0.2671007446728595</v>
       </c>
       <c r="O21">
-        <v>2.857432567243762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5658218331314018</v>
+      </c>
+      <c r="P21">
+        <v>0.9216961851415135</v>
+      </c>
+      <c r="Q21">
+        <v>1.637589508853836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.880713829148647</v>
+        <v>3.260789437935102</v>
       </c>
       <c r="C22">
-        <v>0.4768118621219912</v>
+        <v>0.5307116778944305</v>
       </c>
       <c r="D22">
-        <v>0.06231530926874029</v>
+        <v>0.1030543500041503</v>
       </c>
       <c r="E22">
-        <v>0.03881455997784311</v>
+        <v>0.04744465200132364</v>
       </c>
       <c r="F22">
-        <v>1.109493149231383</v>
+        <v>0.718734816076001</v>
       </c>
       <c r="G22">
-        <v>0.0007902781008006094</v>
+        <v>0.4822521565972551</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003309263596158907</v>
       </c>
       <c r="J22">
-        <v>0.05356551108485252</v>
+        <v>0.344690781442651</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3025354125127073</v>
       </c>
       <c r="L22">
-        <v>0.2608852294935531</v>
+        <v>0.06118534976320777</v>
       </c>
       <c r="M22">
-        <v>0.6749267089205446</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7302053864955056</v>
+        <v>0.2825118741280193</v>
       </c>
       <c r="O22">
-        <v>2.966535177280292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6063516525354089</v>
+      </c>
+      <c r="P22">
+        <v>0.9188302084010473</v>
+      </c>
+      <c r="Q22">
+        <v>1.693699652090999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.737963773899025</v>
+        <v>3.144751674092504</v>
       </c>
       <c r="C23">
-        <v>0.4622501307793812</v>
+        <v>0.5150002691460713</v>
       </c>
       <c r="D23">
-        <v>0.06105984943501852</v>
+        <v>0.1009705498174043</v>
       </c>
       <c r="E23">
-        <v>0.03908137159121061</v>
+        <v>0.04772345412674195</v>
       </c>
       <c r="F23">
-        <v>1.087717348661258</v>
+        <v>0.707093650633297</v>
       </c>
       <c r="G23">
-        <v>0.0007921087127172877</v>
+        <v>0.472505540460503</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002715482198414776</v>
       </c>
       <c r="J23">
-        <v>0.05427923024804837</v>
+        <v>0.3420302698684168</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3030381177057642</v>
       </c>
       <c r="L23">
-        <v>0.2530763755750201</v>
+        <v>0.06164432876164483</v>
       </c>
       <c r="M23">
-        <v>0.6506825863660382</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7439526300174464</v>
+        <v>0.2737401570917939</v>
       </c>
       <c r="O23">
-        <v>2.907702490044187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5848826748307872</v>
+      </c>
+      <c r="P23">
+        <v>0.9189080954136415</v>
+      </c>
+      <c r="Q23">
+        <v>1.667346301688156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.201056745628932</v>
+        <v>2.699566682347779</v>
       </c>
       <c r="C24">
-        <v>0.4072275285787725</v>
+        <v>0.4583318493979789</v>
       </c>
       <c r="D24">
-        <v>0.05638607903576798</v>
+        <v>0.09331560208664058</v>
       </c>
       <c r="E24">
-        <v>0.0401618861610622</v>
+        <v>0.04880091922924734</v>
       </c>
       <c r="F24">
-        <v>1.009567246929862</v>
+        <v>0.6626714533003408</v>
       </c>
       <c r="G24">
-        <v>0.0007991709483543536</v>
+        <v>0.4350512542942511</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001439214234638442</v>
       </c>
       <c r="J24">
-        <v>0.05706516102495485</v>
+        <v>0.3318030828005476</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3043834918045185</v>
       </c>
       <c r="L24">
-        <v>0.2238830892567023</v>
+        <v>0.06346451761382088</v>
       </c>
       <c r="M24">
-        <v>0.5595959084155169</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7986481340007572</v>
+        <v>0.2418405632600553</v>
       </c>
       <c r="O24">
-        <v>2.697618267562746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5034587655502634</v>
+      </c>
+      <c r="P24">
+        <v>0.9232611658341057</v>
+      </c>
+      <c r="Q24">
+        <v>1.56606037251575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.628380226898628</v>
+        <v>2.218803354172564</v>
       </c>
       <c r="C25">
-        <v>0.3480333384989933</v>
+        <v>0.3975133324433955</v>
       </c>
       <c r="D25">
-        <v>0.0515027198944793</v>
+        <v>0.08537560989935145</v>
       </c>
       <c r="E25">
-        <v>0.04147167745633684</v>
+        <v>0.05012532288630034</v>
       </c>
       <c r="F25">
-        <v>0.9335087940859523</v>
+        <v>0.6183828429627596</v>
       </c>
       <c r="G25">
-        <v>0.0008070844833060856</v>
+        <v>0.3974149692191986</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001095608836370054</v>
       </c>
       <c r="J25">
-        <v>0.06024380556611053</v>
+        <v>0.3224442129487244</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3076648759190341</v>
       </c>
       <c r="L25">
-        <v>0.1931060032433791</v>
+        <v>0.06554629922020272</v>
       </c>
       <c r="M25">
-        <v>0.4626436961945544</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8628847434586078</v>
+        <v>0.2083173656064616</v>
       </c>
       <c r="O25">
-        <v>2.495196959795493</v>
+        <v>0.4159051505772169</v>
+      </c>
+      <c r="P25">
+        <v>0.9315227097545744</v>
+      </c>
+      <c r="Q25">
+        <v>1.466138080065292</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.871996625320293</v>
+        <v>1.829779784196262</v>
       </c>
       <c r="C2">
-        <v>0.3491198282941497</v>
+        <v>0.3552796433113059</v>
       </c>
       <c r="D2">
-        <v>0.07966438563938283</v>
+        <v>0.08004937810323298</v>
       </c>
       <c r="E2">
-        <v>0.0513223767311457</v>
+        <v>0.04951287925709469</v>
       </c>
       <c r="F2">
-        <v>0.591790433294122</v>
+        <v>0.5666753208664659</v>
       </c>
       <c r="G2">
-        <v>0.3746929711489244</v>
+        <v>0.335444169871657</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0009267500944565299</v>
+        <v>0.0007642633515922981</v>
       </c>
       <c r="J2">
-        <v>0.3183416913599757</v>
+        <v>0.3409524233457404</v>
       </c>
       <c r="K2">
-        <v>0.3137387741623421</v>
+        <v>0.2906460286058667</v>
       </c>
       <c r="L2">
-        <v>0.06715539485161859</v>
+        <v>0.1503540663480365</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07531526645474962</v>
       </c>
       <c r="N2">
-        <v>0.1830389270207959</v>
+        <v>0.06477771480734251</v>
       </c>
       <c r="O2">
-        <v>0.3519783173557727</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9374172470644453</v>
+        <v>0.1929049458540675</v>
       </c>
       <c r="Q2">
-        <v>1.40895534656326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3498166001486922</v>
+      </c>
+      <c r="R2">
+        <v>0.9394968299742388</v>
+      </c>
+      <c r="S2">
+        <v>1.338524158818643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.631614235169565</v>
+        <v>1.598988980761618</v>
       </c>
       <c r="C3">
-        <v>0.3185588877256151</v>
+        <v>0.3192592939104486</v>
       </c>
       <c r="D3">
-        <v>0.07600759306730254</v>
+        <v>0.07633819102789374</v>
       </c>
       <c r="E3">
-        <v>0.05216546239149</v>
+        <v>0.05039573363435412</v>
       </c>
       <c r="F3">
-        <v>0.5734831350020499</v>
+        <v>0.5505844304326359</v>
       </c>
       <c r="G3">
-        <v>0.3587702595866844</v>
+        <v>0.3224111057087953</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001605316030307335</v>
+        <v>0.001194006233399048</v>
       </c>
       <c r="J3">
-        <v>0.3154648166154672</v>
+        <v>0.3365166451457142</v>
       </c>
       <c r="K3">
-        <v>0.3174125799026335</v>
+        <v>0.2951428002873513</v>
       </c>
       <c r="L3">
-        <v>0.06832356450101873</v>
+        <v>0.1553784980904993</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07495597002104759</v>
       </c>
       <c r="N3">
-        <v>0.1670110159416538</v>
+        <v>0.06569368401467557</v>
       </c>
       <c r="O3">
-        <v>0.3084682619308765</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9448806442856608</v>
+        <v>0.1756181747958507</v>
       </c>
       <c r="Q3">
-        <v>1.36887113700061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3066931068345227</v>
+      </c>
+      <c r="R3">
+        <v>0.9403657438955477</v>
+      </c>
+      <c r="S3">
+        <v>1.304617576137858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.483499181237107</v>
+        <v>1.456508879562222</v>
       </c>
       <c r="C4">
-        <v>0.2998642722323126</v>
+        <v>0.297312604934362</v>
       </c>
       <c r="D4">
-        <v>0.07383363120882791</v>
+        <v>0.07413628630875735</v>
       </c>
       <c r="E4">
-        <v>0.05272099835672961</v>
+        <v>0.05097372690561475</v>
       </c>
       <c r="F4">
-        <v>0.5629157925128823</v>
+        <v>0.5412437583155878</v>
       </c>
       <c r="G4">
-        <v>0.3494697643691893</v>
+        <v>0.3148722163017155</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.002226889312769043</v>
+        <v>0.001630237790972267</v>
       </c>
       <c r="J4">
-        <v>0.3140259639476426</v>
+        <v>0.3339226110580213</v>
       </c>
       <c r="K4">
-        <v>0.3200192428785336</v>
+        <v>0.2981637649602789</v>
       </c>
       <c r="L4">
-        <v>0.06907108452959854</v>
+        <v>0.1585925470408398</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07530936466970317</v>
       </c>
       <c r="N4">
-        <v>0.1573627539577771</v>
+        <v>0.06628571778537928</v>
       </c>
       <c r="O4">
-        <v>0.281756408527194</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9502994015022566</v>
+        <v>0.1652336566073842</v>
       </c>
       <c r="Q4">
-        <v>1.345945654310171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2801916327549279</v>
+      </c>
+      <c r="R4">
+        <v>0.9417870198859859</v>
+      </c>
+      <c r="S4">
+        <v>1.285091737708157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.422187753788762</v>
+        <v>1.397429602975023</v>
       </c>
       <c r="C5">
-        <v>0.292642593888516</v>
+        <v>0.2888138469990338</v>
       </c>
       <c r="D5">
-        <v>0.07297731876528246</v>
+        <v>0.07327029879557045</v>
       </c>
       <c r="E5">
-        <v>0.05294743017437131</v>
+        <v>0.05120905955086386</v>
       </c>
       <c r="F5">
-        <v>0.5584357179425723</v>
+        <v>0.5372326200014896</v>
       </c>
       <c r="G5">
-        <v>0.3454910541185185</v>
+        <v>0.3116151595343908</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002602978318290816</v>
+        <v>0.001935208190989357</v>
       </c>
       <c r="J5">
-        <v>0.3133646961725347</v>
+        <v>0.3327361265667719</v>
       </c>
       <c r="K5">
-        <v>0.3209332182514579</v>
+        <v>0.2992324691452062</v>
       </c>
       <c r="L5">
-        <v>0.06938464587131765</v>
+        <v>0.1598137335194139</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07554633368941754</v>
       </c>
       <c r="N5">
-        <v>0.1536082173910458</v>
+        <v>0.06653708399125602</v>
       </c>
       <c r="O5">
-        <v>0.2708305163049651</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9530028797684338</v>
+        <v>0.16119227751539</v>
       </c>
       <c r="Q5">
-        <v>1.336043973696434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2693446071431218</v>
+      </c>
+      <c r="R5">
+        <v>0.9428953619952978</v>
+      </c>
+      <c r="S5">
+        <v>1.276488424147175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.410995828297075</v>
+        <v>1.386602019877813</v>
       </c>
       <c r="C6">
-        <v>0.2919126224643662</v>
+        <v>0.287902011406814</v>
       </c>
       <c r="D6">
-        <v>0.0728509930436303</v>
+        <v>0.07314286329012276</v>
       </c>
       <c r="E6">
-        <v>0.05297412719271932</v>
+        <v>0.05123749526766375</v>
       </c>
       <c r="F6">
-        <v>0.5572893616780235</v>
+        <v>0.5361645154839891</v>
       </c>
       <c r="G6">
-        <v>0.3444667011275655</v>
+        <v>0.3107194632309316</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002765458821386346</v>
+        <v>0.002101865190741847</v>
       </c>
       <c r="J6">
-        <v>0.3130701887961322</v>
+        <v>0.3323440964036735</v>
       </c>
       <c r="K6">
-        <v>0.3208041677605031</v>
+        <v>0.2991380159276744</v>
       </c>
       <c r="L6">
-        <v>0.06943894513045912</v>
+        <v>0.15987134353378</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07553245874749592</v>
       </c>
       <c r="N6">
-        <v>0.1531477213375751</v>
+        <v>0.06658268325696604</v>
       </c>
       <c r="O6">
-        <v>0.2689671855758462</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9538209899112289</v>
+        <v>0.1606896415091512</v>
       </c>
       <c r="Q6">
-        <v>1.333241613941127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2674934447009427</v>
+      </c>
+      <c r="R6">
+        <v>0.9434748887670068</v>
+      </c>
+      <c r="S6">
+        <v>1.273907311472698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.479923796227155</v>
+        <v>1.452000607675586</v>
       </c>
       <c r="C7">
-        <v>0.3010503765388819</v>
+        <v>0.2981344433497952</v>
       </c>
       <c r="D7">
-        <v>0.07386247683681546</v>
+        <v>0.07427491794887686</v>
       </c>
       <c r="E7">
-        <v>0.05269285308811611</v>
+        <v>0.05096123112263307</v>
       </c>
       <c r="F7">
-        <v>0.5617289778794614</v>
+        <v>0.539408755709907</v>
       </c>
       <c r="G7">
-        <v>0.3484033185552917</v>
+        <v>0.3165274938098861</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.002481024608445459</v>
+        <v>0.001928770165619653</v>
       </c>
       <c r="J7">
-        <v>0.3134995619136092</v>
+        <v>0.3294729358019453</v>
       </c>
       <c r="K7">
-        <v>0.3192511689037083</v>
+        <v>0.2971626425296918</v>
       </c>
       <c r="L7">
-        <v>0.06908069350194257</v>
+        <v>0.1580801978265072</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07507044764929383</v>
       </c>
       <c r="N7">
-        <v>0.1577496146537953</v>
+        <v>0.06629424964190722</v>
       </c>
       <c r="O7">
-        <v>0.2814744557893079</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9513231902748558</v>
+        <v>0.1655953552657436</v>
       </c>
       <c r="Q7">
-        <v>1.342580742646263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.279754229298284</v>
+      </c>
+      <c r="R7">
+        <v>0.9432777616080159</v>
+      </c>
+      <c r="S7">
+        <v>1.279657823418347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.785541401990486</v>
+        <v>1.743474883364115</v>
       </c>
       <c r="C8">
-        <v>0.3402865072237233</v>
+        <v>0.3432209233330497</v>
       </c>
       <c r="D8">
-        <v>0.07844197474681636</v>
+        <v>0.0791729955360907</v>
       </c>
       <c r="E8">
-        <v>0.05156460193050361</v>
+        <v>0.04981967583414093</v>
       </c>
       <c r="F8">
-        <v>0.583844763523004</v>
+        <v>0.5573403990031096</v>
       </c>
       <c r="G8">
-        <v>0.3677594840583964</v>
+        <v>0.3385504390366307</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001414530858122376</v>
+        <v>0.001231927130053379</v>
       </c>
       <c r="J8">
-        <v>0.3165976000568662</v>
+        <v>0.3259803975268412</v>
       </c>
       <c r="K8">
-        <v>0.3139043948866167</v>
+        <v>0.2902960443391898</v>
       </c>
       <c r="L8">
-        <v>0.06756151694862034</v>
+        <v>0.151188315619013</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0745415940909151</v>
       </c>
       <c r="N8">
-        <v>0.1780517608361833</v>
+        <v>0.0650886192556932</v>
       </c>
       <c r="O8">
-        <v>0.3367931401518476</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.941179372522484</v>
+        <v>0.1873757446162827</v>
       </c>
       <c r="Q8">
-        <v>1.390500618542745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3342475640286224</v>
+      </c>
+      <c r="R8">
+        <v>0.9425366990133242</v>
+      </c>
+      <c r="S8">
+        <v>1.315314527974309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.385922629245385</v>
+        <v>2.317475086210209</v>
       </c>
       <c r="C9">
-        <v>0.4155863142848091</v>
+        <v>0.4321858754567813</v>
       </c>
       <c r="D9">
-        <v>0.0879371655223693</v>
+        <v>0.08893721032548285</v>
       </c>
       <c r="E9">
-        <v>0.0497116595697733</v>
+        <v>0.04786906093776278</v>
       </c>
       <c r="F9">
-        <v>0.6348676691632917</v>
+        <v>0.601425783196369</v>
       </c>
       <c r="G9">
-        <v>0.4115714868410407</v>
+        <v>0.377587635187254</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0006774330386853933</v>
+        <v>0.0008610303610687708</v>
       </c>
       <c r="J9">
-        <v>0.326307549074258</v>
+        <v>0.3349306223129744</v>
       </c>
       <c r="K9">
-        <v>0.3077064282078155</v>
+        <v>0.2812617887618671</v>
       </c>
       <c r="L9">
-        <v>0.0648111410550376</v>
+        <v>0.1398171145202287</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07872963917060183</v>
       </c>
       <c r="N9">
-        <v>0.2187082519118633</v>
+        <v>0.06295580257281141</v>
       </c>
       <c r="O9">
-        <v>0.4456223294231734</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9263119852815578</v>
+        <v>0.2313242836918334</v>
       </c>
       <c r="Q9">
-        <v>1.504425063733066</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4417916117471918</v>
+      </c>
+      <c r="R9">
+        <v>0.9448387671932892</v>
+      </c>
+      <c r="S9">
+        <v>1.409527769670916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.823565532226723</v>
+        <v>2.728501031284736</v>
       </c>
       <c r="C10">
-        <v>0.4722046059849561</v>
+        <v>0.4967815822057275</v>
       </c>
       <c r="D10">
-        <v>0.09532276010567386</v>
+        <v>0.09720597142417375</v>
       </c>
       <c r="E10">
-        <v>0.04852800558333836</v>
+        <v>0.04669274722304806</v>
       </c>
       <c r="F10">
-        <v>0.6756678326762398</v>
+        <v>0.632512135732533</v>
       </c>
       <c r="G10">
-        <v>0.4461044065580069</v>
+        <v>0.4249490521681452</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001460846093143786</v>
+        <v>0.001729819671274058</v>
       </c>
       <c r="J10">
-        <v>0.335006423738335</v>
+        <v>0.3208205859627569</v>
       </c>
       <c r="K10">
-        <v>0.3047106533726556</v>
+        <v>0.2742364798481667</v>
       </c>
       <c r="L10">
-        <v>0.06294820261746192</v>
+        <v>0.1314619157795036</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08394484985252504</v>
       </c>
       <c r="N10">
-        <v>0.2499373517199928</v>
+        <v>0.06152292356593403</v>
       </c>
       <c r="O10">
-        <v>0.5256905293055141</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9205369138769726</v>
+        <v>0.2649348655343857</v>
       </c>
       <c r="Q10">
-        <v>1.596330297349908</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5198001269081942</v>
+      </c>
+      <c r="R10">
+        <v>0.9548132714595852</v>
+      </c>
+      <c r="S10">
+        <v>1.472421391445863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.017620272093097</v>
+        <v>2.899802935064429</v>
       </c>
       <c r="C11">
-        <v>0.5003591523992554</v>
+        <v>0.5241816037770093</v>
       </c>
       <c r="D11">
-        <v>0.09884063658715547</v>
+        <v>0.1023252068439788</v>
       </c>
       <c r="E11">
-        <v>0.04798491835465413</v>
+        <v>0.04631543910778824</v>
       </c>
       <c r="F11">
-        <v>0.6933298953143066</v>
+        <v>0.6387709433940714</v>
       </c>
       <c r="G11">
-        <v>0.4608617470224203</v>
+        <v>0.4758951978496953</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002489426821679075</v>
+        <v>0.002806503128435445</v>
       </c>
       <c r="J11">
-        <v>0.3385601104027671</v>
+        <v>0.2809985885757627</v>
       </c>
       <c r="K11">
-        <v>0.3025625568844852</v>
+        <v>0.2676643468450557</v>
       </c>
       <c r="L11">
-        <v>0.06215549402067388</v>
+        <v>0.1265927988071791</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.08534431283923638</v>
       </c>
       <c r="N11">
-        <v>0.2651502377685375</v>
+        <v>0.06089731095152295</v>
       </c>
       <c r="O11">
-        <v>0.5619474550688395</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9208920635960993</v>
+        <v>0.2808859617045556</v>
       </c>
       <c r="Q11">
-        <v>1.635266639756622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5533840230565232</v>
+      </c>
+      <c r="R11">
+        <v>0.9678135513405834</v>
+      </c>
+      <c r="S11">
+        <v>1.476038907721886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.093537293746351</v>
+        <v>2.965673819822655</v>
       </c>
       <c r="C12">
-        <v>0.5098833851885445</v>
+        <v>0.5327504855900713</v>
       </c>
       <c r="D12">
-        <v>0.100151440116484</v>
+        <v>0.1044055395463488</v>
       </c>
       <c r="E12">
-        <v>0.04781124648282997</v>
+        <v>0.04622704331036509</v>
       </c>
       <c r="F12">
-        <v>0.7011411161423453</v>
+        <v>0.6413199343047324</v>
       </c>
       <c r="G12">
-        <v>0.4674423203834124</v>
+        <v>0.5007332310859169</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.002726597411327525</v>
+        <v>0.003006065523185164</v>
       </c>
       <c r="J12">
-        <v>0.3404174652234531</v>
+        <v>0.2640446120951054</v>
       </c>
       <c r="K12">
-        <v>0.3024828210382786</v>
+        <v>0.2655073064479296</v>
       </c>
       <c r="L12">
-        <v>0.06184998025905131</v>
+        <v>0.1249018412192129</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08604881488918181</v>
       </c>
       <c r="N12">
-        <v>0.2705698476765832</v>
+        <v>0.06064495876895037</v>
       </c>
       <c r="O12">
-        <v>0.5758139924097776</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9202008444895711</v>
+        <v>0.2865192805856367</v>
       </c>
       <c r="Q12">
-        <v>1.653184897187231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.566008729968928</v>
+      </c>
+      <c r="R12">
+        <v>0.9725329119855672</v>
+      </c>
+      <c r="S12">
+        <v>1.477599192637456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.077689053086885</v>
+        <v>2.952047689541303</v>
       </c>
       <c r="C13">
-        <v>0.5075943735604653</v>
+        <v>0.5306768988487249</v>
       </c>
       <c r="D13">
-        <v>0.09986143207802911</v>
+        <v>0.1039417894904631</v>
       </c>
       <c r="E13">
-        <v>0.04785349600495081</v>
+        <v>0.04624968859660417</v>
       </c>
       <c r="F13">
-        <v>0.6996491300631362</v>
+        <v>0.6409944333236908</v>
       </c>
       <c r="G13">
-        <v>0.4661976098042118</v>
+        <v>0.4953476935705368</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002631017067151298</v>
+        <v>0.002909812665154554</v>
       </c>
       <c r="J13">
-        <v>0.3401040677720317</v>
+        <v>0.2678247629037003</v>
       </c>
       <c r="K13">
-        <v>0.3026300332814813</v>
+        <v>0.2661033022743133</v>
       </c>
       <c r="L13">
-        <v>0.06191336349510657</v>
+        <v>0.1253083707761995</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.08595120727371608</v>
       </c>
       <c r="N13">
-        <v>0.269323145381378</v>
+        <v>0.06069578265813469</v>
       </c>
       <c r="O13">
-        <v>0.5728522253997141</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.920140368687953</v>
+        <v>0.2852259037792066</v>
       </c>
       <c r="Q13">
-        <v>1.649873099435865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5633249432629768</v>
+      </c>
+      <c r="R13">
+        <v>0.9712469737336562</v>
+      </c>
+      <c r="S13">
+        <v>1.477908446310067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.024079072877214</v>
+        <v>2.905461773026389</v>
       </c>
       <c r="C14">
-        <v>0.5010417233883118</v>
+        <v>0.524790108505357</v>
       </c>
       <c r="D14">
-        <v>0.09894518889288406</v>
+        <v>0.1024895111378754</v>
       </c>
       <c r="E14">
-        <v>0.04797268426768753</v>
+        <v>0.04630966516319468</v>
       </c>
       <c r="F14">
-        <v>0.6940532058445186</v>
+        <v>0.6390766582181158</v>
       </c>
       <c r="G14">
-        <v>0.461476295819125</v>
+        <v>0.4779180438353166</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.002489656935551032</v>
+        <v>0.002799882344278082</v>
       </c>
       <c r="J14">
-        <v>0.3387496434038439</v>
+        <v>0.279665359869874</v>
       </c>
       <c r="K14">
-        <v>0.3026111724341476</v>
+        <v>0.2675433065299195</v>
       </c>
       <c r="L14">
-        <v>0.06212933619874406</v>
+        <v>0.126472067210349</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.08542522287844889</v>
       </c>
       <c r="N14">
-        <v>0.2655622956420842</v>
+        <v>0.06087506004455534</v>
       </c>
       <c r="O14">
-        <v>0.5630987017372604</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9207463015895883</v>
+        <v>0.2813153718535375</v>
       </c>
       <c r="Q14">
-        <v>1.636972826897704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5544378280312685</v>
+      </c>
+      <c r="R14">
+        <v>0.9680870343597689</v>
+      </c>
+      <c r="S14">
+        <v>1.476445081258021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.990253104159535</v>
+        <v>2.875761395548352</v>
       </c>
       <c r="C15">
-        <v>0.4974972465233805</v>
+        <v>0.5216116656342535</v>
       </c>
       <c r="D15">
-        <v>0.09839972856769208</v>
+        <v>0.1016383777237095</v>
       </c>
       <c r="E15">
-        <v>0.04803639747346367</v>
+        <v>0.04634060759916903</v>
       </c>
       <c r="F15">
-        <v>0.6902570870380913</v>
+        <v>0.6374270241641398</v>
       </c>
       <c r="G15">
-        <v>0.4582494866602218</v>
+        <v>0.4675189148202321</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.002497090738357244</v>
+        <v>0.002843988590099045</v>
       </c>
       <c r="J15">
-        <v>0.337752257229738</v>
+        <v>0.2865464859912308</v>
       </c>
       <c r="K15">
-        <v>0.3023465305680411</v>
+        <v>0.2681524260012829</v>
       </c>
       <c r="L15">
-        <v>0.06226652552115741</v>
+        <v>0.1270960996564892</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.084994398556546</v>
       </c>
       <c r="N15">
-        <v>0.2634170774081355</v>
+        <v>0.0609917990650537</v>
       </c>
       <c r="O15">
-        <v>0.5570765480624686</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9215348407180528</v>
+        <v>0.2790776412094402</v>
       </c>
       <c r="Q15">
-        <v>1.628009620156121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5489157845070665</v>
+      </c>
+      <c r="R15">
+        <v>0.9667147599801211</v>
+      </c>
+      <c r="S15">
+        <v>1.474163327673295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.802613713936751</v>
+        <v>2.708913985874972</v>
       </c>
       <c r="C16">
-        <v>0.4742699824932686</v>
+        <v>0.4991250439828434</v>
       </c>
       <c r="D16">
-        <v>0.09521224701778408</v>
+        <v>0.09701647782659961</v>
       </c>
       <c r="E16">
-        <v>0.04847869784034486</v>
+        <v>0.04663884426567222</v>
       </c>
       <c r="F16">
-        <v>0.6712661046791553</v>
+        <v>0.6288298296245713</v>
       </c>
       <c r="G16">
-        <v>0.4422090043864557</v>
+        <v>0.4192615829629602</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002090835376527878</v>
+        <v>0.002503202824894579</v>
       </c>
       <c r="J16">
-        <v>0.3332946347560579</v>
+        <v>0.3216753794097187</v>
       </c>
       <c r="K16">
-        <v>0.3026438076644808</v>
+        <v>0.2726006972562693</v>
       </c>
       <c r="L16">
-        <v>0.0630349078906427</v>
+        <v>0.1310496572529072</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08302636106196815</v>
       </c>
       <c r="N16">
-        <v>0.2502337110059045</v>
+        <v>0.06161904765694981</v>
       </c>
       <c r="O16">
-        <v>0.5229073942675342</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.923835621244038</v>
+        <v>0.2652268829303495</v>
       </c>
       <c r="Q16">
-        <v>1.584473260662236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5171597878718188</v>
+      </c>
+      <c r="R16">
+        <v>0.9577425059944886</v>
+      </c>
+      <c r="S16">
+        <v>1.462852755951786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.687458782640022</v>
+        <v>2.604141920853579</v>
       </c>
       <c r="C17">
-        <v>0.4600530555267142</v>
+        <v>0.4843719633913111</v>
       </c>
       <c r="D17">
-        <v>0.09328031337938825</v>
+        <v>0.09447264728143523</v>
       </c>
       <c r="E17">
-        <v>0.04876150512315469</v>
+        <v>0.04687004157891295</v>
       </c>
       <c r="F17">
-        <v>0.6598778235510707</v>
+        <v>0.6222665884797252</v>
       </c>
       <c r="G17">
-        <v>0.4325689712412242</v>
+        <v>0.39689415730696</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001926947557671532</v>
+        <v>0.002359616151200505</v>
       </c>
       <c r="J17">
-        <v>0.3306800108745591</v>
+        <v>0.3372838896131611</v>
       </c>
       <c r="K17">
-        <v>0.3029559052317232</v>
+        <v>0.2748652571446648</v>
       </c>
       <c r="L17">
-        <v>0.06351466650983006</v>
+        <v>0.1333495394997541</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08172622432712018</v>
       </c>
       <c r="N17">
-        <v>0.2422147756775956</v>
+        <v>0.06200412876008787</v>
       </c>
       <c r="O17">
-        <v>0.5019674144395552</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9255106544526441</v>
+        <v>0.2567154664100286</v>
       </c>
       <c r="Q17">
-        <v>1.558438674669219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4973148450077716</v>
+      </c>
+      <c r="R17">
+        <v>0.9536895213430938</v>
+      </c>
+      <c r="S17">
+        <v>1.451685097415464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.623698267344139</v>
+        <v>2.545510843887712</v>
       </c>
       <c r="C18">
-        <v>0.4507054188292727</v>
+        <v>0.4742694055240122</v>
       </c>
       <c r="D18">
-        <v>0.09214192914914321</v>
+        <v>0.09307293833151675</v>
       </c>
       <c r="E18">
-        <v>0.04895437798329461</v>
+        <v>0.04704427633659591</v>
       </c>
       <c r="F18">
-        <v>0.6544090851351001</v>
+        <v>0.6190060013158103</v>
       </c>
       <c r="G18">
-        <v>0.4279855668811052</v>
+        <v>0.3872767010602871</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001614570783142533</v>
+        <v>0.002000396446780961</v>
       </c>
       <c r="J18">
-        <v>0.3296695944858357</v>
+        <v>0.3441305642332395</v>
       </c>
       <c r="K18">
-        <v>0.3038520329605596</v>
+        <v>0.2766243917195226</v>
       </c>
       <c r="L18">
-        <v>0.06378355445598149</v>
+        <v>0.1348531158475463</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.08119343852368388</v>
       </c>
       <c r="N18">
-        <v>0.2372374005769728</v>
+        <v>0.06220909218206128</v>
       </c>
       <c r="O18">
-        <v>0.4900554604261984</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9255773709072912</v>
+        <v>0.2514112610532209</v>
       </c>
       <c r="Q18">
-        <v>1.546534802749647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4858992242247666</v>
+      </c>
+      <c r="R18">
+        <v>0.9507684295142127</v>
+      </c>
+      <c r="S18">
+        <v>1.446518596592057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.60018376754374</v>
+        <v>2.523607126860895</v>
       </c>
       <c r="C19">
-        <v>0.4484531148875703</v>
+        <v>0.4717776288054552</v>
       </c>
       <c r="D19">
-        <v>0.09178540152524306</v>
+        <v>0.09264384593056718</v>
       </c>
       <c r="E19">
-        <v>0.0490003129794232</v>
+        <v>0.04708675746420354</v>
       </c>
       <c r="F19">
-        <v>0.6518109709076398</v>
+        <v>0.617082588417091</v>
       </c>
       <c r="G19">
-        <v>0.4257588076014827</v>
+        <v>0.3837363147805206</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001702080964102848</v>
+        <v>0.002110508554966195</v>
       </c>
       <c r="J19">
-        <v>0.3289872446732005</v>
+        <v>0.3456466801104767</v>
       </c>
       <c r="K19">
-        <v>0.3036462810711313</v>
+        <v>0.2767142376050522</v>
       </c>
       <c r="L19">
-        <v>0.06388292229527615</v>
+        <v>0.1351759919811997</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08082384444040969</v>
       </c>
       <c r="N19">
-        <v>0.235856599310182</v>
+        <v>0.06229107802176959</v>
       </c>
       <c r="O19">
-        <v>0.4859270416448283</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9263808689793365</v>
+        <v>0.2499269794446377</v>
       </c>
       <c r="Q19">
-        <v>1.540360835575228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4819161663721161</v>
+      </c>
+      <c r="R19">
+        <v>0.9507027380169149</v>
+      </c>
+      <c r="S19">
+        <v>1.442404870347161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.699914944360387</v>
+        <v>2.615578146320047</v>
       </c>
       <c r="C20">
-        <v>0.4614724568911015</v>
+        <v>0.4858774628440017</v>
       </c>
       <c r="D20">
-        <v>0.09348229676263031</v>
+        <v>0.09473005120467093</v>
       </c>
       <c r="E20">
-        <v>0.04873300643767919</v>
+        <v>0.04684566281498359</v>
       </c>
       <c r="F20">
-        <v>0.6611579395544425</v>
+        <v>0.6230880191674473</v>
       </c>
       <c r="G20">
-        <v>0.433657634619621</v>
+        <v>0.39909189306006</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.00192152945414481</v>
+        <v>0.002348563195822884</v>
       </c>
       <c r="J20">
-        <v>0.3309892128584693</v>
+        <v>0.3359155927088437</v>
       </c>
       <c r="K20">
-        <v>0.3029703820767473</v>
+        <v>0.2746897357751763</v>
       </c>
       <c r="L20">
-        <v>0.0634624671285291</v>
+        <v>0.1331274911612308</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08188650407829812</v>
       </c>
       <c r="N20">
-        <v>0.2430352819396688</v>
+        <v>0.06196184264974658</v>
       </c>
       <c r="O20">
-        <v>0.504205576085937</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9252442937531313</v>
+        <v>0.257590169123489</v>
       </c>
       <c r="Q20">
-        <v>1.561407270241602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4994505212475246</v>
+      </c>
+      <c r="R20">
+        <v>0.9539823507430611</v>
+      </c>
+      <c r="S20">
+        <v>1.45324410794683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.037023974521617</v>
+        <v>2.912778371140689</v>
       </c>
       <c r="C21">
-        <v>0.5042920838282043</v>
+        <v>0.5263212039771759</v>
       </c>
       <c r="D21">
-        <v>0.09925364862342434</v>
+        <v>0.1033765598606564</v>
       </c>
       <c r="E21">
-        <v>0.04790872009677827</v>
+        <v>0.04632194144238611</v>
       </c>
       <c r="F21">
-        <v>0.6945890609056562</v>
+        <v>0.636185265080023</v>
       </c>
       <c r="G21">
-        <v>0.4618647057520491</v>
+        <v>0.4928851903085842</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002780164164366106</v>
+        <v>0.003129444139453597</v>
       </c>
       <c r="J21">
-        <v>0.3386432352696573</v>
+        <v>0.2653676567063101</v>
       </c>
       <c r="K21">
-        <v>0.3018683312989943</v>
+        <v>0.2655450731806539</v>
       </c>
       <c r="L21">
-        <v>0.06207808030738438</v>
+        <v>0.1255970849988408</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08491310493367976</v>
       </c>
       <c r="N21">
-        <v>0.2671007446728595</v>
+        <v>0.06082791953929245</v>
       </c>
       <c r="O21">
-        <v>0.5658218331314018</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9216961851415135</v>
+        <v>0.2827703429794042</v>
       </c>
       <c r="Q21">
-        <v>1.637589508853836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5563174417930554</v>
+      </c>
+      <c r="R21">
+        <v>0.9720982467249684</v>
+      </c>
+      <c r="S21">
+        <v>1.46628269806294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.260789437935102</v>
+        <v>3.108158952281883</v>
       </c>
       <c r="C22">
-        <v>0.5307116778944305</v>
+        <v>0.5503982347640886</v>
       </c>
       <c r="D22">
-        <v>0.1030543500041503</v>
+        <v>0.1093228745590054</v>
       </c>
       <c r="E22">
-        <v>0.04744465200132364</v>
+        <v>0.04609595057090132</v>
       </c>
       <c r="F22">
-        <v>0.718734816076001</v>
+        <v>0.6456158581140841</v>
       </c>
       <c r="G22">
-        <v>0.4822521565972551</v>
+        <v>0.5651588341963389</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.003309263596158907</v>
+        <v>0.003474522281940118</v>
       </c>
       <c r="J22">
-        <v>0.344690781442651</v>
+        <v>0.2253409890522491</v>
       </c>
       <c r="K22">
-        <v>0.3025354125127073</v>
+        <v>0.2603393329672841</v>
       </c>
       <c r="L22">
-        <v>0.06118534976320777</v>
+        <v>0.1211137581081161</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08748221184066551</v>
       </c>
       <c r="N22">
-        <v>0.2825118741280193</v>
+        <v>0.06009091834978797</v>
       </c>
       <c r="O22">
-        <v>0.6063516525354089</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9188302084010473</v>
+        <v>0.2988305227656411</v>
       </c>
       <c r="Q22">
-        <v>1.693699652090999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5933786008009463</v>
+      </c>
+      <c r="R22">
+        <v>0.9844679830752199</v>
+      </c>
+      <c r="S22">
+        <v>1.476758295830592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.144751674092504</v>
+        <v>3.009966211993913</v>
       </c>
       <c r="C23">
-        <v>0.5150002691460713</v>
+        <v>0.5370173295197844</v>
       </c>
       <c r="D23">
-        <v>0.1009705498174043</v>
+        <v>0.1057685141264173</v>
       </c>
       <c r="E23">
-        <v>0.04772345412674195</v>
+        <v>0.04620106294008863</v>
       </c>
       <c r="F23">
-        <v>0.707093650633297</v>
+        <v>0.6435718578452239</v>
       </c>
       <c r="G23">
-        <v>0.472505540460503</v>
+        <v>0.5190496020707371</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.002715482198414776</v>
+        <v>0.0029270672840358</v>
       </c>
       <c r="J23">
-        <v>0.3420302698684168</v>
+        <v>0.2530107108264161</v>
       </c>
       <c r="K23">
-        <v>0.3030381177057642</v>
+        <v>0.264557102211505</v>
       </c>
       <c r="L23">
-        <v>0.06164432876164483</v>
+        <v>0.1239659207147703</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08670510188624192</v>
       </c>
       <c r="N23">
-        <v>0.2737401570917939</v>
+        <v>0.06046720180316356</v>
       </c>
       <c r="O23">
-        <v>0.5848826748307872</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9189080954136415</v>
+        <v>0.2897995197285894</v>
       </c>
       <c r="Q23">
-        <v>1.667346301688156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5742089767406</v>
+      </c>
+      <c r="R23">
+        <v>0.9748286591500488</v>
+      </c>
+      <c r="S23">
+        <v>1.480225247254538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.699566682347779</v>
+        <v>2.615657869107054</v>
       </c>
       <c r="C24">
-        <v>0.4583318493979789</v>
+        <v>0.4824960280147081</v>
       </c>
       <c r="D24">
-        <v>0.09331560208664058</v>
+        <v>0.09453575102878631</v>
       </c>
       <c r="E24">
-        <v>0.04880091922924734</v>
+        <v>0.04690936174303051</v>
       </c>
       <c r="F24">
-        <v>0.6626714533003408</v>
+        <v>0.6247574443486172</v>
       </c>
       <c r="G24">
-        <v>0.4350512542942511</v>
+        <v>0.3999446761155667</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001439214234638442</v>
+        <v>0.001766434377183046</v>
       </c>
       <c r="J24">
-        <v>0.3318030828005476</v>
+        <v>0.3374478205920752</v>
       </c>
       <c r="K24">
-        <v>0.3043834918045185</v>
+        <v>0.2760788890551531</v>
       </c>
       <c r="L24">
-        <v>0.06346451761382088</v>
+        <v>0.1337067664432077</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0823292155913542</v>
       </c>
       <c r="N24">
-        <v>0.2418405632600553</v>
+        <v>0.06194609898950265</v>
       </c>
       <c r="O24">
-        <v>0.5034587655502634</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9232611658341057</v>
+        <v>0.2563385820443074</v>
       </c>
       <c r="Q24">
-        <v>1.56606037251575</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4987514251576428</v>
+      </c>
+      <c r="R24">
+        <v>0.951530341009061</v>
+      </c>
+      <c r="S24">
+        <v>1.458338654239611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.218803354172564</v>
+        <v>2.159149216245055</v>
       </c>
       <c r="C25">
-        <v>0.3975133324433955</v>
+        <v>0.4111417195259151</v>
       </c>
       <c r="D25">
-        <v>0.08537560989935145</v>
+        <v>0.08614247738196923</v>
       </c>
       <c r="E25">
-        <v>0.05012532288630034</v>
+        <v>0.04829174893547528</v>
       </c>
       <c r="F25">
-        <v>0.6183828429627596</v>
+        <v>0.587927707905024</v>
       </c>
       <c r="G25">
-        <v>0.3974149692191986</v>
+        <v>0.3608685221627894</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001095608836370054</v>
+        <v>0.001296036702848724</v>
       </c>
       <c r="J25">
-        <v>0.3224442129487244</v>
+        <v>0.3368411704060676</v>
       </c>
       <c r="K25">
-        <v>0.3076648759190341</v>
+        <v>0.2825299614201242</v>
       </c>
       <c r="L25">
-        <v>0.06554629922020272</v>
+        <v>0.1423999532553051</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07677072396748308</v>
       </c>
       <c r="N25">
-        <v>0.2083173656064616</v>
+        <v>0.06354252289539541</v>
       </c>
       <c r="O25">
-        <v>0.4159051505772169</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9315227097545744</v>
+        <v>0.2200943378877298</v>
       </c>
       <c r="Q25">
-        <v>1.466138080065292</v>
+        <v>0.4126749211605514</v>
+      </c>
+      <c r="R25">
+        <v>0.944893891759051</v>
+      </c>
+      <c r="S25">
+        <v>1.380115556693738</v>
       </c>
     </row>
   </sheetData>
